--- a/MATLAB_code/TRIPLEX.xlsx
+++ b/MATLAB_code/TRIPLEX.xlsx
@@ -5,18 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Datos\Desktop\Jaswant\Tesis\Matlab\codigo de yuang\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Prestress_finding\MATLAB_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13718B8-0347-4644-AF7D-D702A4B9EF8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03737CE1-33CB-4BE9-96D3-E26E569FEA74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F0E01AD4-B8B7-49C7-A7C2-F849DA5EB829}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="CONNECTIVITY" sheetId="1" r:id="rId1"/>
+    <sheet name="COORDINATES" sheetId="2" r:id="rId2"/>
+    <sheet name="FREE NODES" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,28 +26,8 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>lt</t>
-  </si>
-  <si>
-    <t>ls</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>h</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="0.00000000000000"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -78,9 +57,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -759,65 +737,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08E6A95B-6495-4EB3-9574-6F59C475A9D7}">
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <f>+B1/(2*SIN(PI()/3))</f>
-        <v>1.7320508075688774</v>
-      </c>
-      <c r="C3">
-        <f>+SQRT(3)</f>
-        <v>1.7320508075688772</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <f>+SQRT(B2^2-(2*B3^2-2*B3^2*COS(5*PI()/6)))</f>
-        <v>7.2666255977099414</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E7">
-        <v>1.7320508075688801</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>